--- a/uploads/cargaUsuarios.xlsx
+++ b/uploads/cargaUsuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AVA\serverbienestar\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7AB748D-70DB-4DBD-B69D-AAA569571AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508F0E8D-EE0B-4B62-B05E-FB2066F2E23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E1CC2711-A2D0-43C2-915F-445579150FA9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>correo</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>Garcia</t>
-  </si>
-  <si>
-    <t>CE</t>
   </si>
   <si>
     <t>Femenino</t>
@@ -528,7 +525,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H4" sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,30 +608,30 @@
         <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G3" s="5">
         <v>87654321</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4">
         <v>123456789</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
@@ -655,6 +652,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e5c1a488-5979-478c-9cad-90b6f463d0a0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010067694F032B25BE439F4147E1BC5503DE" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c8250ebbb30382f6eebe3a047577da95">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e5c1a488-5979-478c-9cad-90b6f463d0a0" xmlns:ns4="492d021d-ceb7-4263-bf46-2b0b5f44c4aa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="901c5c33cd27dc0556e1197bcd41f479" ns3:_="" ns4:_="">
     <xsd:import namespace="e5c1a488-5979-478c-9cad-90b6f463d0a0"/>
@@ -879,24 +893,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAC00B8E-0E3A-408A-8D4C-4374E6ED01B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="492d021d-ceb7-4263-bf46-2b0b5f44c4aa"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e5c1a488-5979-478c-9cad-90b6f463d0a0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e5c1a488-5979-478c-9cad-90b6f463d0a0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5916CFDE-E018-414C-9F4F-A39CB5FD7E47}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC2B45E8-A75C-4B78-8788-153E8B7762E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -913,29 +935,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5916CFDE-E018-414C-9F4F-A39CB5FD7E47}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAC00B8E-0E3A-408A-8D4C-4374E6ED01B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="492d021d-ceb7-4263-bf46-2b0b5f44c4aa"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="e5c1a488-5979-478c-9cad-90b6f463d0a0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/uploads/cargaUsuarios.xlsx
+++ b/uploads/cargaUsuarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AVA\serverbienestar\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508F0E8D-EE0B-4B62-B05E-FB2066F2E23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AC0086-DC70-44A3-AA8A-AC73C89DF251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E1CC2711-A2D0-43C2-915F-445579150FA9}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>correo</t>
   </si>
   <si>
-    <t>clave</t>
-  </si>
-  <si>
     <t>rol</t>
   </si>
   <si>
@@ -62,49 +59,49 @@
     <t>genero</t>
   </si>
   <si>
-    <t>juant.perez@sena.edu.co</t>
-  </si>
-  <si>
-    <t>Capacitador</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Perez</t>
-  </si>
-  <si>
     <t>CC</t>
   </si>
   <si>
     <t>Masculino</t>
   </si>
   <si>
-    <t>aria.garcia@sena.edu.co</t>
-  </si>
-  <si>
     <t>Administrador</t>
   </si>
   <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Garcia</t>
-  </si>
-  <si>
     <t>Femenino</t>
   </si>
   <si>
-    <t>luis.sanchez@sena.edu.co</t>
-  </si>
-  <si>
     <t>Instructor</t>
   </si>
   <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Sanchez</t>
+    <t>Profesional</t>
+  </si>
+  <si>
+    <t>Daniel Fernando</t>
+  </si>
+  <si>
+    <t>Ramirez Lasso</t>
+  </si>
+  <si>
+    <t>Karol Valentina</t>
+  </si>
+  <si>
+    <t>Sierra Diaz</t>
+  </si>
+  <si>
+    <t>Laura Camila</t>
+  </si>
+  <si>
+    <t>Cardenas Avila</t>
+  </si>
+  <si>
+    <t>dframirez786@soy.sena.edu.co</t>
+  </si>
+  <si>
+    <t>kvsierra77@sena.edu.co</t>
+  </si>
+  <si>
+    <t>lccardenas323@soy.sena.edu.co</t>
   </si>
 </sst>
 </file>
@@ -522,24 +519,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AE4D1F-9A53-4300-80CF-7CC7457260A2}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="A1:H4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,123 +549,96 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="4">
+        <v>12345678</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4">
-        <v>12345678</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4">
-        <v>12345678</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4">
-        <v>87654321</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5">
+        <v>87654321</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5">
-        <v>87654321</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="4">
-        <v>123456789</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="4">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4">
         <v>11223344</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>13</v>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{B559E869-31E3-49B0-984F-C099E3CD0B0A}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00B39B47-D29F-4DF3-B8BC-35A77FC89FF2}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{24BB5342-F36A-450A-AE62-55B36A36DD56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e5c1a488-5979-478c-9cad-90b6f463d0a0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010067694F032B25BE439F4147E1BC5503DE" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c8250ebbb30382f6eebe3a047577da95">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e5c1a488-5979-478c-9cad-90b6f463d0a0" xmlns:ns4="492d021d-ceb7-4263-bf46-2b0b5f44c4aa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="901c5c33cd27dc0556e1197bcd41f479" ns3:_="" ns4:_="">
     <xsd:import namespace="e5c1a488-5979-478c-9cad-90b6f463d0a0"/>
@@ -893,32 +863,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e5c1a488-5979-478c-9cad-90b6f463d0a0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAC00B8E-0E3A-408A-8D4C-4374E6ED01B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="492d021d-ceb7-4263-bf46-2b0b5f44c4aa"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="e5c1a488-5979-478c-9cad-90b6f463d0a0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5916CFDE-E018-414C-9F4F-A39CB5FD7E47}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC2B45E8-A75C-4B78-8788-153E8B7762E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -935,4 +897,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5916CFDE-E018-414C-9F4F-A39CB5FD7E47}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAC00B8E-0E3A-408A-8D4C-4374E6ED01B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="492d021d-ceb7-4263-bf46-2b0b5f44c4aa"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e5c1a488-5979-478c-9cad-90b6f463d0a0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>